--- a/biology/Zoologie/Boloria/Boloria.xlsx
+++ b/biology/Zoologie/Boloria/Boloria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boloria est un genre de lépidoptères de la famille des Nymphalidae et de la sous-famille des Heliconiinae.
 De répartition holarctique, il comprend une quarantaine d'espèces réparties dans trois sous-genres (Boloria, Proclossiana et Clossiana), qui sont souvent traités comme des genres distincts.
@@ -512,11 +524,13 @@
           <t>Systématique et phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Boloria a été décrit par l'entomologiste britannique Frederic Moore en 1900[1]. L'espèce type pour le genre est Papilio pales [Denis &amp; Schiffermüller], 1775.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Boloria a été décrit par l'entomologiste britannique Frederic Moore en 1900. L'espèce type pour le genre est Papilio pales [Denis &amp; Schiffermüller], 1775.
 Les contours de ce genre ont toujours été débattus, certains auteurs définissant un genre Boloria restreint qu'ils opposent aux genres Clossiana Reuss, 1920 et Proclossiana Reuss, 1926, et d'autres auteurs préférant englober tous ces taxons dans un genre Boloria élargi. 
-Les connaissances sur la phylogénie et l'histoire évolutive de ce groupe ont beaucoup progressé dans les années 2000, grâce à des études fondées sur des critères morphologiques et moléculaires[2],[3].
+Les connaissances sur la phylogénie et l'histoire évolutive de ce groupe ont beaucoup progressé dans les années 2000, grâce à des études fondées sur des critères morphologiques et moléculaires,.
 Ces études ont privilégié la conception large du genre Boloria et l'ont divisé en trois sous-genres : Boloria s. str., Proclossiana et Clossiana.
 Le genre Boloria et ses trois sous-genres apparaissent comme monophylétiques, et Boloria s. str. et Proclossiana sont des groupes frères.
 </t>
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les imagos du genre Boloria sont des papillons de taille petite à moyenne.
 Comme chez la plupart des Argynnini, le dessin de base de leur face supérieure consiste en un fond fauve orangé orné de plusieurs rangées de points, tirets ou chevrons noirs, dont la forme et l'agencement diffère selon les espèces.
@@ -581,7 +597,9 @@
           <t>Répartition et habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Boloria est holarctique, ce qui signifie que ses espèces sont répandues dans l'hémisphère nord, dans les écozones paléarctique (en Eurasie) et néarctique (en Amérique du Nord).
 La plupart des espèces sont inféodées aux milieux froids, la plus grande diversité se trouvant dans les massifs montagneux et dans les régions arctiques.
@@ -615,38 +633,113 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sous-genre Boloria Moore, 1900
-Boloria (Boloria) alaskensis (Holland, 1900) — Sibérie et Amérique arctiques, Rocheuses — parfois considérée comme une sous-espèce de B. napaea[4]
+          <t>Sous-genre Boloria Moore, 1900</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boloria (Boloria) alaskensis (Holland, 1900) — Sibérie et Amérique arctiques, Rocheuses — parfois considérée comme une sous-espèce de B. napaea
 Boloria (Boloria) altaica (Grum-Grshimailo, 1893) — de l'Altaï à la Transbaïkalie — parfois considérée comme une sous-espèce de B. napaea
 Boloria (Boloria) aquilonaris (Stichel, 1908) — le Nacré de la canneberge — de l'Europe à l'Ouest de la Sibérie et au Kazakhstan
-Boloria (Boloria) banghaasi Seitz, [1909] — de l'Altaï au Kamtchatka — statut incertain, souvent considérée comme une sous-espèce de B. aquilonaris[5]
+Boloria (Boloria) banghaasi Seitz,  — de l'Altaï au Kamtchatka — statut incertain, souvent considérée comme une sous-espèce de B. aquilonaris
 Boloria (Boloria) caucasica (Lederer, 1852) — Caucase, Turquie
 Boloria (Boloria) frigidalis Warren, 1944 — Altaï, Touva, Mongolie
-Boloria (Boloria) generator (Staudinger, 1886) — Pamir, monts Tian, Himalaya — statut incertain, souvent considérée comme une sous-espèce de B. sipora[6]
+Boloria (Boloria) generator (Staudinger, 1886) — Pamir, monts Tian, Himalaya — statut incertain, souvent considérée comme une sous-espèce de B. sipora
 Boloria (Boloria) graeca (Staudinger, 1870) — le Nacré des Balkans — Alpes, Balkans
 Boloria (Boloria) napaea (Hoffmannsegg, 1804) — le Nacré des renouées — Pyrénées, Alpes, Scandinavie
-Boloria (Boloria) neopales (Nakahara, 1926) — Sakhaline — statut incertain, peut-être conspécifique avec B. banghaasi[5]
+Boloria (Boloria) neopales (Nakahara, 1926) — Sakhaline — statut incertain, peut-être conspécifique avec B. banghaasi
 Boloria (Boloria) pales ([Denis &amp; Schiffermüller], 1775) — le Nacré subalpin — montagnes d'Europe tempérée, Asie centrale, Chine — Les sous-espèces eupales (Tibet), sifanica (Qinghai, Gansu) et palina (Sichuan) sont parfois considérées comme des espèces distinctes.
 Boloria (Boloria) purpurea Churkin, 1999 — monts Bargouzine
-Boloria (Boloria) roddi Kosterin, 2000 — Altaï — statut incertain, souvent considérée comme une sous-espèce de B. banghaasi[5]
+Boloria (Boloria) roddi Kosterin, 2000 — Altaï — statut incertain, souvent considérée comme une sous-espèce de B. banghaasi
 Boloria (Boloria) sipora (Moore, 1875) — Pamir
 			Boloria (Boloria) aquilonaris, le Nacré de la canneberge
 			Boloria (Boloria) graeca, le Nacré des Balkans
 			Boloria (Boloria) napaea, le Nacré des renouées
 			Boloria (Boloria) pales, le Nacré subalpin
-Sous-genre Proclossiana Reuss, 1926
-Boloria (Proclossiana) eunomia (Esper, 1800) — le Nacré de la bistorte — Eurasie tempérée et boréale, Amérique du Nord
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Boloria</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-genre Proclossiana Reuss, 1926</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boloria (Proclossiana) eunomia (Esper, 1800) — le Nacré de la bistorte — Eurasie tempérée et boréale, Amérique du Nord
 			Boloria (Proclossiana) eunomia, le Nacré de la bistorte
-Sous-genre Clossiana Reuss, 1920
-Boloria (Clossiana) alberta (Edwards, 1890) — Tchoukotka, Nord-Ouest de l'Amérique du Nord
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boloria</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-genre Clossiana Reuss, 1920</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boloria (Clossiana) alberta (Edwards, 1890) — Tchoukotka, Nord-Ouest de l'Amérique du Nord
 Boloria (Clossiana) angarensis (Erschoff, 1870) — Sibérie, Chine, Corée
-Boloria (Clossiana) astarte (Doubleday, [1848]) — Nord-Ouest de l'Amérique du Nord
+Boloria (Clossiana) astarte (Doubleday, ) — Nord-Ouest de l'Amérique du Nord
 Boloria (Clossiana) bellona (Fabricius, 1775) — le Boloria des prés — Nord de l'Amérique du Nord
 Boloria (Clossiana) butleri (Edwards, 1883) — Tchoukotka, Amérique arctique — statut incertain, souvent considérée comme une sous-espèce de B. chariclea
 Boloria (Clossiana) chariclea (Schneider, 1794) — le Nacré lapon — Eurasie arctique, Nord de l'Amérique du Nord
 Boloria (Clossiana) dia (Linnaeus, 1767) — la Petite violette — Eurasie tempérée
-Boloria (Clossiana) distincta (Gibson, 1920) — Sibérie, Alaska, Canada — statut incertain, souvent considérée comme une sous-espèce de B. astarte[7]
-Boloria (Clossiana) elatus (Staudinger, 1892) — Transbaïkalie — statut incertain, souvent considérée comme une sous-espèce de B. tritonia[8]
+Boloria (Clossiana) distincta (Gibson, 1920) — Sibérie, Alaska, Canada — statut incertain, souvent considérée comme une sous-espèce de B. astarte
+Boloria (Clossiana) elatus (Staudinger, 1892) — Transbaïkalie — statut incertain, souvent considérée comme une sous-espèce de B. tritonia
 Boloria (Clossiana) epithore (Edwards, 1864) — Ouest de l'Amérique du Nord
 Boloria (Clossiana) erda (Christoph, 1893) — Nord-Est de l'Asie
 Boloria (Clossiana) erubescens (Staudinger, 1901) (= hegemone Staudinger, 1881) — Asie centrale
@@ -666,7 +759,7 @@
 Boloria (Clossiana) selene ([Denis &amp; Schiffermüller], 1775) — le Petit collier argenté — Eurasie tempérée et boréale, Amérique du Nord
 Boloria (Clossiana) selenis (Eversmann, 1837) — Nord et Nord-Est de l'Asie
 Boloria (Clossiana) thore (Hübner, 1803) — le Nacré noirâtre — Alpes, Scandinavie, Asie centrale et orientale
-Boloria (Clossiana) titania (Esper, [1793]) — le Nacré porphyrin — Eurasie tempérée
+Boloria (Clossiana) titania (Esper, ) — le Nacré porphyrin — Eurasie tempérée
 Boloria (Clossiana) tritonia (Böber, 1812) — du lac Baïkal à l'Oussouri
 			Boloria (Clossiana) dia, la Petite violette
 			Boloria (Clossiana) euphrosyne, le Grand collier argenté
